--- a/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AVERAGE_10_6_qoq_errors_latest_eval.xlsx
+++ b/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AVERAGE_10_6_qoq_errors_latest_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t>Q0</t>
   </si>
@@ -37,66 +37,354 @@
     <t>Q6</t>
   </si>
   <si>
+    <t>1988-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1989-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1989-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1989-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1989-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1990-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1990-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1990-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1990-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1991-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1991-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1991-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1991-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1992-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1992-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1992-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1992-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1993-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1993-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1993-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1993-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1994-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1994-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1994-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1994-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1995-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1995-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1995-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1995-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1996-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1996-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1996-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1996-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1997-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1997-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1997-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1997-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1998-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1998-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1998-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1998-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1999-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1999-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1999-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1999-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2000-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2000-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2000-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2000-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2001-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2001-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2001-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2001-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2002-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2002-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2002-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2002-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2003-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2003-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2003-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2003-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2004-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2004-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2004-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2004-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2005-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2005-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2005-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2005-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2006-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2006-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2006-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2006-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2007-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2007-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2007-07-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2007-10-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2008-01-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2008-04-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2008-07-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2008-10-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2009-01-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2009-04-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2009-07-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2009-10-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2010-01-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2010-04-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2010-07-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2010-10-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2011-01-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2011-04-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2011-07-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2011-10-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2012-01-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2012-04-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2012-07-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2012-10-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2013-01-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2013-04-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2013-07-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2013-10-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2014-01-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2014-04-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2014-07-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2014-10-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2015-01-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2015-04-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2015-07-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2015-10-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2016-01-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2016-04-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2016-07-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2016-10-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2017-01-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2017-04-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2017-07-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2017-10-01 00:00:00_diff</t>
   </si>
   <si>
@@ -188,6 +476,9 @@
   </si>
   <si>
     <t>2025-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2025-07-01 00:00:00_diff</t>
   </si>
 </sst>
 </file>
@@ -545,7 +836,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -579,25 +870,25 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.0784733436364673</v>
+        <v>-0.5060068269423306</v>
       </c>
       <c r="C2">
-        <v>0.08065295778981685</v>
+        <v>-0.3315181088272685</v>
       </c>
       <c r="D2">
-        <v>1.022575281055017</v>
+        <v>0.2816863685904022</v>
       </c>
       <c r="E2">
-        <v>1.210076349390349</v>
+        <v>-0.206351016835526</v>
       </c>
       <c r="F2">
-        <v>2.215294659555314</v>
+        <v>-0.4801372992501325</v>
       </c>
       <c r="G2">
-        <v>5.349756427593507</v>
+        <v>-1.379538488323971</v>
       </c>
       <c r="H2">
-        <v>0.4159523501925403</v>
+        <v>0.2089804062012694</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -605,25 +896,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.104312089099192</v>
+        <v>-0.3278447767506695</v>
       </c>
       <c r="C3">
-        <v>1.291813157434523</v>
+        <v>0.2853597006670012</v>
       </c>
       <c r="D3">
-        <v>2.297031467599489</v>
+        <v>-0.202677684758927</v>
       </c>
       <c r="E3">
-        <v>5.431493235637681</v>
+        <v>-0.4764639671735335</v>
       </c>
       <c r="F3">
-        <v>0.497689158236715</v>
+        <v>-1.375865156247372</v>
       </c>
       <c r="G3">
-        <v>0.1236317945015498</v>
+        <v>0.2126537382778684</v>
       </c>
       <c r="H3">
-        <v>-0.02380962735559489</v>
+        <v>-1.414454807235195</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -631,25 +922,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>2.091191727723699</v>
+        <v>0.3141167314837636</v>
       </c>
       <c r="C4">
-        <v>5.225653495761891</v>
+        <v>-0.1739206539421646</v>
       </c>
       <c r="D4">
-        <v>0.2918494183609256</v>
+        <v>-0.4477069363567711</v>
       </c>
       <c r="E4">
-        <v>-0.08220794537423959</v>
+        <v>-1.347108125430609</v>
       </c>
       <c r="F4">
-        <v>-0.2296493672313843</v>
+        <v>0.2414107690946308</v>
       </c>
       <c r="G4">
-        <v>-0.18915438738349</v>
+        <v>-1.385697776418432</v>
       </c>
       <c r="H4">
-        <v>-1.628357481642796</v>
+        <v>-1.046496365682941</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -657,25 +948,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>-0.5264473040380895</v>
+        <v>-0.2315013303517257</v>
       </c>
       <c r="C5">
-        <v>-0.9005046677732547</v>
+        <v>-0.5052876127663322</v>
       </c>
       <c r="D5">
-        <v>-1.047946089630399</v>
+        <v>-1.40468880184017</v>
       </c>
       <c r="E5">
-        <v>-1.007451109782505</v>
+        <v>0.1838300926850697</v>
       </c>
       <c r="F5">
-        <v>-2.446654204041811</v>
+        <v>-1.443278452827993</v>
       </c>
       <c r="G5">
-        <v>-1.244959454137977</v>
+        <v>-1.104077042092502</v>
       </c>
       <c r="H5">
-        <v>-0.9356696977468588</v>
+        <v>-2.089447838049712</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -683,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>-1.052433927991407</v>
+        <v>-0.1638482841896609</v>
       </c>
       <c r="C6">
-        <v>-1.011938948143512</v>
+        <v>-1.063249473263499</v>
       </c>
       <c r="D6">
-        <v>-2.451142042402819</v>
+        <v>0.525269421261741</v>
       </c>
       <c r="E6">
-        <v>-1.249447292498985</v>
+        <v>-1.101839124251322</v>
       </c>
       <c r="F6">
-        <v>-0.9401575361078661</v>
+        <v>-0.7626377135158309</v>
       </c>
       <c r="G6">
-        <v>-2.095210382000564</v>
+        <v>-1.748008509473041</v>
       </c>
       <c r="H6">
-        <v>-0.5555765381109743</v>
+        <v>1.490570101624267</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -709,25 +1000,25 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>-2.527487953207926</v>
+        <v>-1.170814798143782</v>
       </c>
       <c r="C7">
-        <v>-1.325793203304092</v>
+        <v>0.4177040963814575</v>
       </c>
       <c r="D7">
-        <v>-1.016503446912973</v>
+        <v>-1.209404449131606</v>
       </c>
       <c r="E7">
-        <v>-2.171556292805672</v>
+        <v>-0.8702030383961143</v>
       </c>
       <c r="F7">
-        <v>-0.6319224489160813</v>
+        <v>-1.855573834353325</v>
       </c>
       <c r="G7">
-        <v>-0.901576568889715</v>
+        <v>1.383004776743984</v>
       </c>
       <c r="H7">
-        <v>-0.3500448649906018</v>
+        <v>1.058941399104061</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -735,25 +1026,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.8260246319213993</v>
+        <v>0.553980189501863</v>
       </c>
       <c r="C8">
-        <v>-1.981077477814098</v>
+        <v>-1.0731283560112</v>
       </c>
       <c r="D8">
-        <v>-0.4414436339245075</v>
+        <v>-0.7339269452757089</v>
       </c>
       <c r="E8">
-        <v>-0.7110977538981412</v>
+        <v>-1.719297741232919</v>
       </c>
       <c r="F8">
-        <v>-0.159566049999028</v>
+        <v>1.519280869864389</v>
       </c>
       <c r="G8">
-        <v>-0.3854928109118805</v>
+        <v>1.195217492224466</v>
       </c>
       <c r="H8">
-        <v>-0.2776770955153309</v>
+        <v>-0.396352001420621</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -761,25 +1052,25 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.1405287498260583</v>
+        <v>-1.18259729822726</v>
       </c>
       <c r="C9">
-        <v>-0.4101828697996921</v>
+        <v>-0.8433958874917689</v>
       </c>
       <c r="D9">
-        <v>0.1413488340994211</v>
+        <v>-1.828766683448979</v>
       </c>
       <c r="E9">
-        <v>-0.08457792681343129</v>
+        <v>1.409811927648329</v>
       </c>
       <c r="F9">
-        <v>0.0232377885831183</v>
+        <v>1.085748550008406</v>
       </c>
       <c r="G9">
-        <v>-0.0731618320811834</v>
+        <v>-0.505820943636681</v>
       </c>
       <c r="H9">
-        <v>0.4302490533718251</v>
+        <v>-0.4434722053915938</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -787,25 +1078,25 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7815531178611421</v>
+        <v>-0.542825977114159</v>
       </c>
       <c r="C10">
-        <v>0.5556263569482897</v>
+        <v>-1.528196773071369</v>
       </c>
       <c r="D10">
-        <v>0.6634420723448393</v>
+        <v>1.710381838025939</v>
       </c>
       <c r="E10">
-        <v>0.5670424516805376</v>
+        <v>1.386318460386016</v>
       </c>
       <c r="F10">
-        <v>1.070453337133546</v>
+        <v>-0.2052510332590711</v>
       </c>
       <c r="G10">
-        <v>1.328975279056995</v>
+        <v>-0.142902295013984</v>
       </c>
       <c r="H10">
-        <v>-0.3950073059213186</v>
+        <v>1.852200171385766</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -813,25 +1104,25 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.59085446968239</v>
+        <v>-1.532861758448893</v>
       </c>
       <c r="C11">
-        <v>0.4944548490180882</v>
+        <v>1.705716852648415</v>
       </c>
       <c r="D11">
-        <v>0.9978657344710967</v>
+        <v>1.381653475008492</v>
       </c>
       <c r="E11">
-        <v>1.256387676394546</v>
+        <v>-0.2099160186365949</v>
       </c>
       <c r="F11">
-        <v>-0.467594908583768</v>
+        <v>-0.1475672803915078</v>
       </c>
       <c r="G11">
-        <v>0.1860443077789333</v>
+        <v>1.847535186008242</v>
       </c>
       <c r="H11">
-        <v>0.5495882426873645</v>
+        <v>1.461998182202967</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -839,25 +1130,25 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.9421746901075616</v>
+        <v>1.871704822344712</v>
       </c>
       <c r="C12">
-        <v>1.200696632031011</v>
+        <v>1.547641444704789</v>
       </c>
       <c r="D12">
-        <v>-0.5232859529473031</v>
+        <v>-0.043928048940298</v>
       </c>
       <c r="E12">
-        <v>0.1303532634153982</v>
+        <v>0.01842068930478913</v>
       </c>
       <c r="F12">
-        <v>0.4938971983238294</v>
+        <v>2.013523155704539</v>
       </c>
       <c r="G12">
-        <v>-0.4068786465558001</v>
+        <v>1.627986151899264</v>
       </c>
       <c r="H12">
-        <v>0.6634969103978527</v>
+        <v>1.670370017992696</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -865,25 +1156,25 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.8773451131212686</v>
+        <v>1.538990184453794</v>
       </c>
       <c r="C13">
-        <v>-0.2237058967585673</v>
+        <v>-0.05257930919129294</v>
       </c>
       <c r="D13">
-        <v>0.1398380381498639</v>
+        <v>0.009769429053794187</v>
       </c>
       <c r="E13">
-        <v>-0.7609378067297656</v>
+        <v>2.004871895453544</v>
       </c>
       <c r="F13">
-        <v>0.3094377502238873</v>
+        <v>1.619334891648269</v>
       </c>
       <c r="G13">
-        <v>-0.2676221637925746</v>
+        <v>1.661718757741701</v>
       </c>
       <c r="H13">
-        <v>-0.4732281478855908</v>
+        <v>2.179763839149223</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -891,25 +1182,25 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.04951982135029001</v>
+        <v>-0.2150904353159699</v>
       </c>
       <c r="C14">
-        <v>-0.8512560235293395</v>
+        <v>-0.1527416970708828</v>
       </c>
       <c r="D14">
-        <v>0.2191195334243133</v>
+        <v>1.842360769328867</v>
       </c>
       <c r="E14">
-        <v>-0.3579403805921485</v>
+        <v>1.456823765523592</v>
       </c>
       <c r="F14">
-        <v>-0.5635463646851647</v>
+        <v>1.499207631617024</v>
       </c>
       <c r="G14">
-        <v>0.4155986170359325</v>
+        <v>2.017252713024547</v>
       </c>
       <c r="H14">
-        <v>-0.3207477263014294</v>
+        <v>1.206291819770289</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -917,25 +1208,25 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2874422675287736</v>
+        <v>-0.1070288301540878</v>
       </c>
       <c r="C15">
-        <v>-0.2896176464876882</v>
+        <v>1.888073636245662</v>
       </c>
       <c r="D15">
-        <v>-0.4952236305807045</v>
+        <v>1.502536632440387</v>
       </c>
       <c r="E15">
-        <v>0.4839213511403928</v>
+        <v>1.544920498533819</v>
       </c>
       <c r="F15">
-        <v>-0.2524249921969692</v>
+        <v>2.062965579941341</v>
       </c>
       <c r="G15">
-        <v>-0.2703948068511625</v>
+        <v>1.252004686687084</v>
       </c>
       <c r="H15">
-        <v>-0.2469899413108257</v>
+        <v>0.6742977812969876</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -943,25 +1234,25 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.5938852086106097</v>
+        <v>1.93289832296972</v>
       </c>
       <c r="C16">
-        <v>0.3852597731104875</v>
+        <v>1.547361319164445</v>
       </c>
       <c r="D16">
-        <v>-0.3510865702268745</v>
+        <v>1.589745185257877</v>
       </c>
       <c r="E16">
-        <v>-0.3690563848810678</v>
+        <v>2.1077902666654</v>
       </c>
       <c r="F16">
-        <v>-0.345651519340731</v>
+        <v>1.296829373411142</v>
       </c>
       <c r="G16">
-        <v>-0.7108259551074718</v>
+        <v>0.7191224680210454</v>
       </c>
       <c r="H16">
-        <v>-0.0550064379365196</v>
+        <v>1.39496720436749</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -969,25 +1260,25 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>-0.2740769919852016</v>
+        <v>1.425819506640234</v>
       </c>
       <c r="C17">
-        <v>-0.292046806639395</v>
+        <v>1.468203372733666</v>
       </c>
       <c r="D17">
-        <v>-0.2686419410990581</v>
+        <v>1.986248454141188</v>
       </c>
       <c r="E17">
-        <v>-0.6338163768657989</v>
+        <v>1.175287560886931</v>
       </c>
       <c r="F17">
-        <v>0.02200314030515318</v>
+        <v>0.5975806554968345</v>
       </c>
       <c r="G17">
-        <v>-0.1088677406362705</v>
+        <v>1.273425391843279</v>
       </c>
       <c r="H17">
-        <v>-0.2183855395603924</v>
+        <v>-0.2265740092071939</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -995,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>-0.09712588908289738</v>
+        <v>1.245739785060963</v>
       </c>
       <c r="C18">
-        <v>-0.4623003248496382</v>
+        <v>1.763784866468485</v>
       </c>
       <c r="D18">
-        <v>0.193519192321314</v>
+        <v>0.9528239732142278</v>
       </c>
       <c r="E18">
-        <v>0.0626483113798903</v>
+        <v>0.375117067824131</v>
       </c>
       <c r="F18">
-        <v>-0.04686948754423159</v>
+        <v>1.050961804170576</v>
       </c>
       <c r="G18">
-        <v>-0.8766472746117848</v>
+        <v>-0.4490375968798974</v>
       </c>
       <c r="H18">
-        <v>-0.2961214854431372</v>
+        <v>0.4139719905780734</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1021,25 +1312,25 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.1560540901775642</v>
+        <v>1.701524910939878</v>
       </c>
       <c r="C19">
-        <v>0.02518320923614054</v>
+        <v>0.890564017685621</v>
       </c>
       <c r="D19">
-        <v>-0.08433458968798135</v>
+        <v>0.3128571122955242</v>
       </c>
       <c r="E19">
-        <v>-0.9141123767555346</v>
+        <v>0.988701848641969</v>
       </c>
       <c r="F19">
-        <v>-0.3335865875868869</v>
+        <v>-0.5112975524085043</v>
       </c>
       <c r="G19">
-        <v>-0.4169726890166669</v>
+        <v>0.3517120350494666</v>
       </c>
       <c r="H19">
-        <v>-0.6348825665564255</v>
+        <v>0.3135099147804592</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1047,25 +1338,25 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.106237102096024</v>
+        <v>0.5003987881914451</v>
       </c>
       <c r="C20">
-        <v>-0.9360148891635773</v>
+        <v>-0.07730811719865172</v>
       </c>
       <c r="D20">
-        <v>-0.3554890999949296</v>
+        <v>0.5985366191477931</v>
       </c>
       <c r="E20">
-        <v>-0.4388752014247095</v>
+        <v>-0.9014627819026801</v>
       </c>
       <c r="F20">
-        <v>-0.6567850789644682</v>
+        <v>-0.03845319444470929</v>
       </c>
       <c r="G20">
-        <v>0.9069927246717022</v>
+        <v>-0.07665531471371667</v>
       </c>
       <c r="H20">
-        <v>-0.4289909814103615</v>
+        <v>-0.5925198354705483</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1073,25 +1364,25 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.2673832081489602</v>
+        <v>-0.1915437054237108</v>
       </c>
       <c r="C21">
-        <v>-0.3507693095787401</v>
+        <v>0.484301030922734</v>
       </c>
       <c r="D21">
-        <v>-0.5686791871184989</v>
+        <v>-1.015698370127739</v>
       </c>
       <c r="E21">
-        <v>0.9950986165176716</v>
+        <v>-0.1526887826697684</v>
       </c>
       <c r="F21">
-        <v>-0.3408850895643921</v>
+        <v>-0.1908909029387758</v>
       </c>
       <c r="G21">
-        <v>1.099729326965736</v>
+        <v>-0.7067554236956074</v>
       </c>
       <c r="H21">
-        <v>-0.0007147872950865053</v>
+        <v>0.792253483668417</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1099,25 +1390,25 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.4749660705519546</v>
+        <v>0.2808823851166943</v>
       </c>
       <c r="C22">
-        <v>1.088811733084216</v>
+        <v>-1.219117015933779</v>
       </c>
       <c r="D22">
-        <v>-0.2471719729978479</v>
+        <v>-0.3561074284758081</v>
       </c>
       <c r="E22">
-        <v>1.19344244353228</v>
+        <v>-0.3943095487448154</v>
       </c>
       <c r="F22">
-        <v>0.09299832927145768</v>
+        <v>-0.9101740695016471</v>
       </c>
       <c r="G22">
-        <v>-0.1172760688982122</v>
+        <v>0.5888348378623772</v>
       </c>
       <c r="H22">
-        <v>0.4812681344855182</v>
+        <v>-0.603814376782724</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1125,25 +1416,25 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>1.097015279354651</v>
+        <v>-1.349837137138038</v>
       </c>
       <c r="C23">
-        <v>-0.2389684267274125</v>
+        <v>-0.4868275496800671</v>
       </c>
       <c r="D23">
-        <v>1.201645989802716</v>
+        <v>-0.5250296699490745</v>
       </c>
       <c r="E23">
-        <v>0.1012018755418931</v>
+        <v>-1.040894190705906</v>
       </c>
       <c r="F23">
-        <v>-0.1090725226277768</v>
+        <v>0.4581147166581182</v>
       </c>
       <c r="G23">
-        <v>0.4894716807559536</v>
+        <v>-0.734534497986983</v>
       </c>
       <c r="H23">
-        <v>0.1638030399807392</v>
+        <v>-0.1358217312575683</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1151,25 +1442,25 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.2415579873788807</v>
+        <v>-0.3091193734456205</v>
       </c>
       <c r="C24">
-        <v>1.199056429151248</v>
+        <v>-0.3473214937146278</v>
       </c>
       <c r="D24">
-        <v>0.09861231489042488</v>
+        <v>-0.8631860144714595</v>
       </c>
       <c r="E24">
-        <v>-0.111662083279245</v>
+        <v>0.6358228928925648</v>
       </c>
       <c r="F24">
-        <v>0.4868821201044854</v>
+        <v>-0.5568263217525363</v>
       </c>
       <c r="G24">
-        <v>0.161213479329271</v>
+        <v>0.0418864449768783</v>
       </c>
       <c r="H24">
-        <v>0.8783932807048747</v>
+        <v>0.2035187275457515</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1177,25 +1468,25 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>1.205589761734299</v>
+        <v>-0.3110409895739825</v>
       </c>
       <c r="C25">
-        <v>0.1051456474734768</v>
+        <v>-0.8269055103308141</v>
       </c>
       <c r="D25">
-        <v>-0.1051287506961931</v>
+        <v>0.6721033970332102</v>
       </c>
       <c r="E25">
-        <v>0.4934154526875373</v>
+        <v>-0.5205458176118909</v>
       </c>
       <c r="F25">
-        <v>0.1677468119123229</v>
+        <v>0.0781669491175237</v>
       </c>
       <c r="G25">
-        <v>0.8849266132879265</v>
+        <v>0.2397992316863969</v>
       </c>
       <c r="H25">
-        <v>2.580798888925627</v>
+        <v>0.9918971257213176</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1203,25 +1494,25 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.006071047505593896</v>
+        <v>-0.8995565705361281</v>
       </c>
       <c r="C26">
-        <v>-0.2163454456752638</v>
+        <v>0.5994523368278962</v>
       </c>
       <c r="D26">
-        <v>0.3821987577084666</v>
+        <v>-0.593196877817205</v>
       </c>
       <c r="E26">
-        <v>0.05653011693325222</v>
+        <v>0.005515888912209721</v>
       </c>
       <c r="F26">
-        <v>0.7737099183088558</v>
+        <v>0.1671481714810829</v>
       </c>
       <c r="G26">
-        <v>2.469582193946557</v>
+        <v>0.9192460655160035</v>
       </c>
       <c r="H26">
-        <v>9.313828988871135</v>
+        <v>-1.158702676132161</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1229,25 +1520,25 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.2580915896621678</v>
+        <v>0.6654043960613523</v>
       </c>
       <c r="C27">
-        <v>0.3404526137215625</v>
+        <v>-0.5272448185837488</v>
       </c>
       <c r="D27">
-        <v>0.01478397294634815</v>
+        <v>0.07146794814566582</v>
       </c>
       <c r="E27">
-        <v>0.7319637743219518</v>
+        <v>0.233100230714539</v>
       </c>
       <c r="F27">
-        <v>2.427836049959653</v>
+        <v>0.9851981247494597</v>
       </c>
       <c r="G27">
-        <v>9.272082844884231</v>
+        <v>-1.092750616898705</v>
       </c>
       <c r="H27">
-        <v>-8.278571238217079</v>
+        <v>-0.1135696888567748</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1255,25 +1546,25 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3657676764542774</v>
+        <v>-0.4907712859204739</v>
       </c>
       <c r="C28">
-        <v>0.04009903567906303</v>
+        <v>0.1079414808089408</v>
       </c>
       <c r="D28">
-        <v>0.7572788370546667</v>
+        <v>0.269573763377814</v>
       </c>
       <c r="E28">
-        <v>2.453151112692368</v>
+        <v>1.021671657412735</v>
       </c>
       <c r="F28">
-        <v>9.297397907616945</v>
+        <v>-1.05627708423543</v>
       </c>
       <c r="G28">
-        <v>-8.253256175484365</v>
+        <v>-0.07709615619349985</v>
       </c>
       <c r="H28">
-        <v>-0.5438595758282182</v>
+        <v>-0.6073072008322922</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1281,25 +1572,25 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04413770072197692</v>
+        <v>0.2283396316167836</v>
       </c>
       <c r="C29">
-        <v>0.7613175020975806</v>
+        <v>0.3899719141856568</v>
       </c>
       <c r="D29">
-        <v>2.457189777735282</v>
+        <v>1.142069808220577</v>
       </c>
       <c r="E29">
-        <v>9.30143657265986</v>
+        <v>-0.9358789334275871</v>
       </c>
       <c r="F29">
-        <v>-8.249217510441451</v>
+        <v>0.04330199461434298</v>
       </c>
       <c r="G29">
-        <v>-0.5398209107853043</v>
+        <v>-0.4869090500244494</v>
       </c>
       <c r="H29">
-        <v>1.043091750101607</v>
+        <v>0.9439768724161369</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1307,25 +1598,25 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6424403654065582</v>
+        <v>0.5675929508756177</v>
       </c>
       <c r="C30">
-        <v>2.338312641044259</v>
+        <v>1.319690844910538</v>
       </c>
       <c r="D30">
-        <v>9.182559435968837</v>
+        <v>-0.7582578967376262</v>
       </c>
       <c r="E30">
-        <v>-8.368094647132473</v>
+        <v>0.2209230313043039</v>
       </c>
       <c r="F30">
-        <v>-0.6586980474763267</v>
+        <v>-0.3092880133344885</v>
       </c>
       <c r="G30">
-        <v>0.9242146134105849</v>
+        <v>1.121597909106098</v>
       </c>
       <c r="H30">
-        <v>-2.042072378938671</v>
+        <v>-0.5042415922079092</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1333,25 +1624,25 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>2.297389002388887</v>
+        <v>1.232958611110361</v>
       </c>
       <c r="C31">
-        <v>9.141635797313464</v>
+        <v>-0.8449901305378037</v>
       </c>
       <c r="D31">
-        <v>-8.409018285787846</v>
+        <v>0.1341907975041264</v>
       </c>
       <c r="E31">
-        <v>-0.6996216861316987</v>
+        <v>-0.396020247134666</v>
       </c>
       <c r="F31">
-        <v>0.8832909747552129</v>
+        <v>1.03486567530592</v>
       </c>
       <c r="G31">
-        <v>-2.082996017594043</v>
+        <v>-0.5909738260080867</v>
       </c>
       <c r="H31">
-        <v>0.18103513707042</v>
+        <v>0.128342637679085</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1359,25 +1650,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>8.826710628892494</v>
+        <v>-0.9344741889260094</v>
       </c>
       <c r="C32">
-        <v>-8.723943454208817</v>
+        <v>0.04470673911592066</v>
       </c>
       <c r="D32">
-        <v>-1.01454685455267</v>
+        <v>-0.4855043055228717</v>
       </c>
       <c r="E32">
-        <v>0.5683658063342414</v>
+        <v>0.9453816169177146</v>
       </c>
       <c r="F32">
-        <v>-2.397921186015015</v>
+        <v>-0.6804578843962924</v>
       </c>
       <c r="G32">
-        <v>-0.1338900313505515</v>
+        <v>0.03885857929087927</v>
       </c>
       <c r="H32">
-        <v>-0.5850441862772902</v>
+        <v>-0.3117629503524316</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1385,25 +1676,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>-9.780318414391347</v>
+        <v>0.179029652604578</v>
       </c>
       <c r="C33">
-        <v>-2.0709218147352</v>
+        <v>-0.3511813920342144</v>
       </c>
       <c r="D33">
-        <v>-0.4880091538482882</v>
+        <v>1.079704530406372</v>
       </c>
       <c r="E33">
-        <v>-3.454296146197544</v>
+        <v>-0.5461349709076351</v>
       </c>
       <c r="F33">
-        <v>-1.190264991533081</v>
+        <v>0.1731814927795366</v>
       </c>
       <c r="G33">
-        <v>-1.64141914645982</v>
+        <v>-0.1774400368637743</v>
       </c>
       <c r="H33">
-        <v>-1.781783209973794</v>
+        <v>-0.3920469221024551</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1411,25 +1702,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>-1.200275438764269</v>
+        <v>-0.3878523671780678</v>
       </c>
       <c r="C34">
-        <v>0.3826372221226423</v>
+        <v>1.043033555262519</v>
       </c>
       <c r="D34">
-        <v>-2.583649770226613</v>
+        <v>-0.5828059460514885</v>
       </c>
       <c r="E34">
-        <v>-0.3196186155621505</v>
+        <v>0.1365105176356832</v>
       </c>
       <c r="F34">
-        <v>-0.7707727704888893</v>
+        <v>-0.2141110120076277</v>
       </c>
       <c r="G34">
-        <v>-0.9111368340028634</v>
+        <v>-0.4287178972463085</v>
       </c>
       <c r="H34">
-        <v>-0.3848978231406458</v>
+        <v>0.9909917602114502</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1437,25 +1728,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3719860057927588</v>
+        <v>0.9650568976424558</v>
       </c>
       <c r="C35">
-        <v>-2.594300986556497</v>
+        <v>-0.6607826036715512</v>
       </c>
       <c r="D35">
-        <v>-0.3302698318920341</v>
+        <v>0.0585338600156205</v>
       </c>
       <c r="E35">
-        <v>-0.7814239868187727</v>
+        <v>-0.2920876696276904</v>
       </c>
       <c r="F35">
-        <v>-0.9217880503327469</v>
+        <v>-0.5066945548663712</v>
       </c>
       <c r="G35">
-        <v>-0.3955490394705293</v>
+        <v>0.9130151025913875</v>
       </c>
       <c r="H35">
-        <v>-0.5373779862098034</v>
+        <v>-0.03820627771482926</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1463,25 +1754,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>-2.702915518772638</v>
+        <v>-0.6736400037699091</v>
       </c>
       <c r="C36">
-        <v>-0.4388843641081749</v>
+        <v>0.0456764599172626</v>
       </c>
       <c r="D36">
-        <v>-0.8900385190349136</v>
+        <v>-0.3049450697260483</v>
       </c>
       <c r="E36">
-        <v>-1.030402582548888</v>
+        <v>-0.5195519549647291</v>
       </c>
       <c r="F36">
-        <v>-0.5041635716866701</v>
+        <v>0.9001577024930296</v>
       </c>
       <c r="G36">
-        <v>-0.6459925184259441</v>
+        <v>-0.05106367781318716</v>
       </c>
       <c r="H36">
-        <v>-0.003017897023880223</v>
+        <v>0.4641418930481315</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1489,25 +1780,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>-0.2307826431404359</v>
+        <v>0.02055561871958467</v>
       </c>
       <c r="C37">
-        <v>-0.6819367980671746</v>
+        <v>-0.3300659109237262</v>
       </c>
       <c r="D37">
-        <v>-0.8223008615811487</v>
+        <v>-0.5446727961624069</v>
       </c>
       <c r="E37">
-        <v>-0.2960618507189311</v>
+        <v>0.8750368612953516</v>
       </c>
       <c r="F37">
-        <v>-0.4378907974582051</v>
+        <v>-0.07618451901086509</v>
       </c>
       <c r="G37">
-        <v>0.2050838239438588</v>
+        <v>0.4390210518504535</v>
       </c>
       <c r="H37">
-        <v>0.3294965302734412</v>
+        <v>-0.7407620615053552</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1515,25 +1806,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.5654386276933741</v>
+        <v>-0.277634316065417</v>
       </c>
       <c r="C38">
-        <v>-0.7058026912073482</v>
+        <v>-0.4922412013040978</v>
       </c>
       <c r="D38">
-        <v>-0.1795636803451306</v>
+        <v>0.9274684561536609</v>
       </c>
       <c r="E38">
-        <v>-0.3213926270844047</v>
+        <v>-0.02375292415255587</v>
       </c>
       <c r="F38">
-        <v>0.3215819943176592</v>
+        <v>0.4914526467087628</v>
       </c>
       <c r="G38">
-        <v>0.4459947006472416</v>
+        <v>-0.6883304666470459</v>
       </c>
       <c r="H38">
-        <v>0.04836449460962439</v>
+        <v>0.5925864689379174</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1541,25 +1832,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.6603092772102132</v>
+        <v>-0.5399465512890036</v>
       </c>
       <c r="C39">
-        <v>-0.1340702663479956</v>
+        <v>0.8797631061687551</v>
       </c>
       <c r="D39">
-        <v>-0.2758992130872696</v>
+        <v>-0.0714582741374617</v>
       </c>
       <c r="E39">
-        <v>0.3670754083147943</v>
+        <v>0.4437472967238569</v>
       </c>
       <c r="F39">
-        <v>0.4914881146443768</v>
+        <v>-0.7360358166319517</v>
       </c>
       <c r="G39">
-        <v>0.09385790860675949</v>
+        <v>0.5448811189530116</v>
       </c>
       <c r="H39">
-        <v>0.01768919490591373</v>
+        <v>-0.9528000503185327</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1567,25 +1858,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.15162438770796</v>
+        <v>1.000098071098972</v>
       </c>
       <c r="C40">
-        <v>-0.293453334447234</v>
+        <v>0.04887669079275486</v>
       </c>
       <c r="D40">
-        <v>0.3495212869548299</v>
+        <v>0.5640822616540735</v>
       </c>
       <c r="E40">
-        <v>0.4739339932844123</v>
+        <v>-0.6157008517017352</v>
       </c>
       <c r="F40">
-        <v>0.07630378724679503</v>
+        <v>0.6652160838832282</v>
       </c>
       <c r="G40">
-        <v>0.0001350735459492769</v>
+        <v>-0.8324650853883161</v>
       </c>
       <c r="H40">
-        <v>0.2764571316688709</v>
+        <v>0.06260852877539275</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1593,25 +1884,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.2053460154962278</v>
+        <v>0.1031480595256827</v>
       </c>
       <c r="C41">
-        <v>0.4376286059058361</v>
+        <v>0.6183536303870013</v>
       </c>
       <c r="D41">
-        <v>0.5620413122354185</v>
+        <v>-0.5614294829688073</v>
       </c>
       <c r="E41">
-        <v>0.1644111061978012</v>
+        <v>0.7194874526161561</v>
       </c>
       <c r="F41">
-        <v>0.08824239249695551</v>
+        <v>-0.7781937166553883</v>
       </c>
       <c r="G41">
-        <v>0.3645644506198771</v>
+        <v>0.1168798975083206</v>
       </c>
       <c r="H41">
-        <v>0.1933446283081531</v>
+        <v>-0.9526513035292052</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1619,25 +1910,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.6162032393936197</v>
+        <v>0.6963218101395302</v>
       </c>
       <c r="C42">
-        <v>0.7406159457232021</v>
+        <v>-0.4834613032162784</v>
       </c>
       <c r="D42">
-        <v>0.3429857396855849</v>
+        <v>0.797455632368685</v>
       </c>
       <c r="E42">
-        <v>0.2668170259847391</v>
+        <v>-0.7002255369028594</v>
       </c>
       <c r="F42">
-        <v>0.5431390841076607</v>
+        <v>0.1948480772608495</v>
       </c>
       <c r="G42">
-        <v>0.3719192617959367</v>
+        <v>-0.8746831237766763</v>
       </c>
       <c r="H42">
-        <v>0.525066667304678</v>
+        <v>-0.1270609926247003</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1645,25 +1936,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>1.652643173475852</v>
+        <v>-0.6594952088563636</v>
       </c>
       <c r="C43">
-        <v>1.255012967438235</v>
+        <v>0.6214217267285997</v>
       </c>
       <c r="D43">
-        <v>1.178844253737389</v>
+        <v>-0.8762594425429445</v>
       </c>
       <c r="E43">
-        <v>1.455166311860311</v>
+        <v>0.01881417162076432</v>
       </c>
       <c r="F43">
-        <v>1.283946489548587</v>
+        <v>-1.050717029416762</v>
       </c>
       <c r="G43">
-        <v>1.437093895057328</v>
+        <v>-0.3030948982647854</v>
       </c>
       <c r="H43">
-        <v>1.159665120634209</v>
+        <v>0.4215919659155263</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1671,25 +1962,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3110387314724781</v>
+        <v>0.520178176422651</v>
       </c>
       <c r="C44">
-        <v>0.2348700177716323</v>
+        <v>-0.9775029928488934</v>
       </c>
       <c r="D44">
-        <v>0.5111920758945538</v>
+        <v>-0.08242937868518452</v>
       </c>
       <c r="E44">
-        <v>0.3399722535828299</v>
+        <v>-1.15196057972271</v>
       </c>
       <c r="F44">
-        <v>0.4931196590915711</v>
+        <v>-0.4043384485707343</v>
       </c>
       <c r="G44">
-        <v>0.2156908846684524</v>
+        <v>0.3203484156095775</v>
       </c>
       <c r="H44">
-        <v>0.05270319130950599</v>
+        <v>0.8192458884746004</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1697,25 +1988,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2388379152847414</v>
+        <v>-1.059676932791651</v>
       </c>
       <c r="C45">
-        <v>0.5151599734076631</v>
+        <v>-0.1646033186279419</v>
       </c>
       <c r="D45">
-        <v>0.343940151095939</v>
+        <v>-1.234134519665468</v>
       </c>
       <c r="E45">
-        <v>0.4970875566046802</v>
+        <v>-0.4865123885134916</v>
       </c>
       <c r="F45">
-        <v>0.2196587821815615</v>
+        <v>0.2381744756668202</v>
       </c>
       <c r="G45">
-        <v>0.0566710888226151</v>
+        <v>0.7370719485318431</v>
       </c>
       <c r="H45">
-        <v>-0.06741148657190271</v>
+        <v>-1.814870318135144</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1723,25 +2014,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.6508000635779043</v>
+        <v>-0.02030097835921119</v>
       </c>
       <c r="C46">
-        <v>0.4795802412661804</v>
+        <v>-1.089832179396737</v>
       </c>
       <c r="D46">
-        <v>0.6327276467749217</v>
+        <v>-0.3422100482447609</v>
       </c>
       <c r="E46">
-        <v>0.3552988723518029</v>
+        <v>0.3824768159355508</v>
       </c>
       <c r="F46">
-        <v>0.1923111789928565</v>
+        <v>0.8813742888005738</v>
       </c>
       <c r="G46">
-        <v>0.06822860359833866</v>
+        <v>-1.670567977866413</v>
       </c>
       <c r="H46">
-        <v>0.6511691608790895</v>
+        <v>0.7067880102854767</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1749,22 +2040,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2387740594105157</v>
+        <v>-1.120586977274007</v>
       </c>
       <c r="C47">
-        <v>0.3919214649192569</v>
+        <v>-0.372964846122031</v>
       </c>
       <c r="D47">
-        <v>0.1144926904961382</v>
+        <v>0.3517220180582807</v>
       </c>
       <c r="E47">
-        <v>-0.04849500286280822</v>
+        <v>0.8506194909233037</v>
       </c>
       <c r="F47">
-        <v>-0.172577578257326</v>
+        <v>-1.701322775743683</v>
       </c>
       <c r="G47">
-        <v>0.4103629790234248</v>
+        <v>0.6760332124082067</v>
+      </c>
+      <c r="H47">
+        <v>0.4247769310011789</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1772,69 +2066,2567 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.3465902496671606</v>
+        <v>-0.3395408735300312</v>
       </c>
       <c r="C48">
-        <v>0.0691614752440418</v>
+        <v>0.3851459906502806</v>
       </c>
       <c r="D48">
-        <v>-0.09382621811490459</v>
+        <v>0.8840434635153036</v>
       </c>
       <c r="E48">
-        <v>-0.2179087935094224</v>
+        <v>-1.667898803151683</v>
       </c>
       <c r="F48">
-        <v>0.3650317637713285</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.7094571850002065</v>
+      </c>
+      <c r="G48">
+        <v>0.4582009035931788</v>
+      </c>
+      <c r="H48">
+        <v>0.7700636839698192</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.00230005330798793</v>
+        <v>0.4554807516689218</v>
       </c>
       <c r="C49">
-        <v>-0.1606876400509585</v>
+        <v>0.9543782245339447</v>
       </c>
       <c r="D49">
-        <v>-0.2847702154454763</v>
+        <v>-1.597564042133042</v>
       </c>
       <c r="E49">
-        <v>0.2981703418352746</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.7797919460188477</v>
+      </c>
+      <c r="F49">
+        <v>0.52853566461182</v>
+      </c>
+      <c r="G49">
+        <v>0.8403984449884604</v>
+      </c>
+      <c r="H49">
+        <v>0.9977932750076817</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.1902738424076751</v>
+        <v>0.9056078518050185</v>
       </c>
       <c r="C50">
-        <v>-0.3143564178021929</v>
+        <v>-1.646334414861969</v>
       </c>
       <c r="D50">
-        <v>0.268584139478558</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.7310215732899215</v>
+      </c>
+      <c r="E50">
+        <v>0.4797652918828937</v>
+      </c>
+      <c r="F50">
+        <v>0.7916280722595341</v>
+      </c>
+      <c r="G50">
+        <v>0.9490229022787553</v>
+      </c>
+      <c r="H50">
+        <v>0.09291809652505106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.3325070745318338</v>
+        <v>-1.588836029944684</v>
       </c>
       <c r="C51">
-        <v>0.2504334827489171</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.7885199582072058</v>
+      </c>
+      <c r="D51">
+        <v>0.5372636768001781</v>
+      </c>
+      <c r="E51">
+        <v>0.8491264571768184</v>
+      </c>
+      <c r="F51">
+        <v>1.00652128719604</v>
+      </c>
+      <c r="G51">
+        <v>0.1504164814423354</v>
+      </c>
+      <c r="H51">
+        <v>-0.149152508170912</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B52">
+        <v>0.7958865590184913</v>
+      </c>
+      <c r="C52">
+        <v>0.5446302776114635</v>
+      </c>
+      <c r="D52">
+        <v>0.8564930579881039</v>
+      </c>
+      <c r="E52">
+        <v>1.013887888007325</v>
+      </c>
+      <c r="F52">
+        <v>0.1577830822536209</v>
+      </c>
+      <c r="G52">
+        <v>-0.1417859073596265</v>
+      </c>
+      <c r="H52">
+        <v>0.8197169897272439</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>0.584225439885914</v>
+      </c>
+      <c r="C53">
+        <v>0.8960882202625544</v>
+      </c>
+      <c r="D53">
+        <v>1.053483050281776</v>
+      </c>
+      <c r="E53">
+        <v>0.1973782445280714</v>
+      </c>
+      <c r="F53">
+        <v>-0.102190745085176</v>
+      </c>
+      <c r="G53">
+        <v>0.8593121520016944</v>
+      </c>
+      <c r="H53">
+        <v>1.939466504889506</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.7696066093273728</v>
+      </c>
+      <c r="C54">
+        <v>0.927001439346594</v>
+      </c>
+      <c r="D54">
+        <v>0.07089663359288978</v>
+      </c>
+      <c r="E54">
+        <v>-0.2286723560203576</v>
+      </c>
+      <c r="F54">
+        <v>0.7328305410665128</v>
+      </c>
+      <c r="G54">
+        <v>1.812984893954324</v>
+      </c>
+      <c r="H54">
+        <v>0.3118471724157725</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0.9265594929445722</v>
+      </c>
+      <c r="C55">
+        <v>0.07045468719086789</v>
+      </c>
+      <c r="D55">
+        <v>-0.2291143024223795</v>
+      </c>
+      <c r="E55">
+        <v>0.7323885946644909</v>
+      </c>
+      <c r="F55">
+        <v>1.812542947552302</v>
+      </c>
+      <c r="G55">
+        <v>0.3114052260137506</v>
+      </c>
+      <c r="H55">
+        <v>-0.4532237942753758</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>-0.03809280186119485</v>
+      </c>
+      <c r="C56">
+        <v>-0.3376617914744423</v>
+      </c>
+      <c r="D56">
+        <v>0.6238411056124282</v>
+      </c>
+      <c r="E56">
+        <v>1.70399545850024</v>
+      </c>
+      <c r="F56">
+        <v>0.2028577369616879</v>
+      </c>
+      <c r="G56">
+        <v>-0.5617712833274386</v>
+      </c>
+      <c r="H56">
+        <v>0.2284464050462215</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>-0.431134956002567</v>
+      </c>
+      <c r="C57">
+        <v>0.5303679410843034</v>
+      </c>
+      <c r="D57">
+        <v>1.610522293972115</v>
+      </c>
+      <c r="E57">
+        <v>0.1093845724335631</v>
+      </c>
+      <c r="F57">
+        <v>-0.6552444478555634</v>
+      </c>
+      <c r="G57">
+        <v>0.1349732405180967</v>
+      </c>
+      <c r="H57">
+        <v>0.4114936778990631</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>0.4711658114953084</v>
+      </c>
+      <c r="C58">
+        <v>1.55132016438312</v>
+      </c>
+      <c r="D58">
+        <v>0.0501824428445681</v>
+      </c>
+      <c r="E58">
+        <v>-0.7144465774445583</v>
+      </c>
+      <c r="F58">
+        <v>0.0757711109291017</v>
+      </c>
+      <c r="G58">
+        <v>0.3522915483100681</v>
+      </c>
+      <c r="H58">
+        <v>-0.393642888826026</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>1.44660337003155</v>
+      </c>
+      <c r="C59">
+        <v>-0.0545343515070021</v>
+      </c>
+      <c r="D59">
+        <v>-0.8191633717961285</v>
+      </c>
+      <c r="E59">
+        <v>-0.0289456834224685</v>
+      </c>
+      <c r="F59">
+        <v>0.2475747539584979</v>
+      </c>
+      <c r="G59">
+        <v>-0.4983596831775962</v>
+      </c>
+      <c r="H59">
+        <v>0.4144060954084268</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>-0.08189735322402317</v>
+      </c>
+      <c r="C60">
+        <v>-0.8465263735131496</v>
+      </c>
+      <c r="D60">
+        <v>-0.05630868513948957</v>
+      </c>
+      <c r="E60">
+        <v>0.2202117522414768</v>
+      </c>
+      <c r="F60">
+        <v>-0.5257226848946173</v>
+      </c>
+      <c r="G60">
+        <v>0.3870430936914057</v>
+      </c>
+      <c r="H60">
+        <v>0.1000093861341286</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>-0.8371785609848293</v>
+      </c>
+      <c r="C61">
+        <v>-0.04696087261116927</v>
+      </c>
+      <c r="D61">
+        <v>0.2295595647697971</v>
+      </c>
+      <c r="E61">
+        <v>-0.516374872366297</v>
+      </c>
+      <c r="F61">
+        <v>0.396390906219726</v>
+      </c>
+      <c r="G61">
+        <v>0.1093571986624489</v>
+      </c>
+      <c r="H61">
+        <v>-0.08275278809925816</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62">
+        <v>-0.1203684785117315</v>
+      </c>
+      <c r="C62">
+        <v>0.1561519588692349</v>
+      </c>
+      <c r="D62">
+        <v>-0.5897824782668593</v>
+      </c>
+      <c r="E62">
+        <v>0.3229833003191638</v>
+      </c>
+      <c r="F62">
+        <v>0.03594959276188664</v>
+      </c>
+      <c r="G62">
+        <v>-0.1561603939998204</v>
+      </c>
+      <c r="H62">
+        <v>-0.599508997434522</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63">
+        <v>0.177448519979615</v>
+      </c>
+      <c r="C63">
+        <v>-0.5684859171564791</v>
+      </c>
+      <c r="D63">
+        <v>0.3442798614295439</v>
+      </c>
+      <c r="E63">
+        <v>0.05724615387226675</v>
+      </c>
+      <c r="F63">
+        <v>-0.1348638328894403</v>
+      </c>
+      <c r="G63">
+        <v>-0.5782124363241419</v>
+      </c>
+      <c r="H63">
+        <v>-0.7653209543352615</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64">
+        <v>-0.505075090613081</v>
+      </c>
+      <c r="C64">
+        <v>0.4076906879729419</v>
+      </c>
+      <c r="D64">
+        <v>0.1206569804156648</v>
+      </c>
+      <c r="E64">
+        <v>-0.07145300634604221</v>
+      </c>
+      <c r="F64">
+        <v>-0.5148016097807437</v>
+      </c>
+      <c r="G64">
+        <v>-0.7019101277918633</v>
+      </c>
+      <c r="H64">
+        <v>-0.2937378724205427</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65">
+        <v>0.463028676534344</v>
+      </c>
+      <c r="C65">
+        <v>0.1759949689770668</v>
+      </c>
+      <c r="D65">
+        <v>-0.0161150177846402</v>
+      </c>
+      <c r="E65">
+        <v>-0.4594636212193418</v>
+      </c>
+      <c r="F65">
+        <v>-0.6465721392304613</v>
+      </c>
+      <c r="G65">
+        <v>-0.2383998838591407</v>
+      </c>
+      <c r="H65">
+        <v>-0.979110413645869</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66">
+        <v>0.1763219436056626</v>
+      </c>
+      <c r="C66">
+        <v>-0.01578804315604448</v>
+      </c>
+      <c r="D66">
+        <v>-0.459136646590746</v>
+      </c>
+      <c r="E66">
+        <v>-0.6462451646018657</v>
+      </c>
+      <c r="F66">
+        <v>-0.238072909230545</v>
+      </c>
+      <c r="G66">
+        <v>-0.9787834390172734</v>
+      </c>
+      <c r="H66">
+        <v>-1.572176489636913</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67">
+        <v>-0.06636526300727785</v>
+      </c>
+      <c r="C67">
+        <v>-0.5097138664419794</v>
+      </c>
+      <c r="D67">
+        <v>-0.696822384453099</v>
+      </c>
+      <c r="E67">
+        <v>-0.2886501290817783</v>
+      </c>
+      <c r="F67">
+        <v>-1.029360658868507</v>
+      </c>
+      <c r="G67">
+        <v>-1.622753709488147</v>
+      </c>
+      <c r="H67">
+        <v>-0.6661925151791699</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68">
+        <v>-0.4329779081081394</v>
+      </c>
+      <c r="C68">
+        <v>-0.6200864261192589</v>
+      </c>
+      <c r="D68">
+        <v>-0.2119141707479383</v>
+      </c>
+      <c r="E68">
+        <v>-0.9526247005346666</v>
+      </c>
+      <c r="F68">
+        <v>-1.546017751154307</v>
+      </c>
+      <c r="G68">
+        <v>-0.5894565568453298</v>
+      </c>
+      <c r="H68">
+        <v>-1.299938403804157</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69">
+        <v>-0.6470300829047104</v>
+      </c>
+      <c r="C69">
+        <v>-0.2388578275333897</v>
+      </c>
+      <c r="D69">
+        <v>-0.9795683573201182</v>
+      </c>
+      <c r="E69">
+        <v>-1.572961407939758</v>
+      </c>
+      <c r="F69">
+        <v>-0.6164002136307813</v>
+      </c>
+      <c r="G69">
+        <v>-1.326882060589609</v>
+      </c>
+      <c r="H69">
+        <v>0.005088224128751789</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70">
+        <v>-0.1120592152316288</v>
+      </c>
+      <c r="C70">
+        <v>-0.8527697450183571</v>
+      </c>
+      <c r="D70">
+        <v>-1.446162795637997</v>
+      </c>
+      <c r="E70">
+        <v>-0.4896016013290204</v>
+      </c>
+      <c r="F70">
+        <v>-1.200083448287848</v>
+      </c>
+      <c r="G70">
+        <v>0.1318868364305127</v>
+      </c>
+      <c r="H70">
+        <v>-0.3937773765231593</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71">
+        <v>-0.8263176116769129</v>
+      </c>
+      <c r="C71">
+        <v>-1.419710662296553</v>
+      </c>
+      <c r="D71">
+        <v>-0.463149467987576</v>
+      </c>
+      <c r="E71">
+        <v>-1.173631314946404</v>
+      </c>
+      <c r="F71">
+        <v>0.1583389697719571</v>
+      </c>
+      <c r="G71">
+        <v>-0.3673252431817149</v>
+      </c>
+      <c r="H71">
+        <v>-0.2185038501677188</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72">
+        <v>-1.405259657055261</v>
+      </c>
+      <c r="C72">
+        <v>-0.4486984627462842</v>
+      </c>
+      <c r="D72">
+        <v>-1.159180309705112</v>
+      </c>
+      <c r="E72">
+        <v>0.1727899750132489</v>
+      </c>
+      <c r="F72">
+        <v>-0.3528742379404231</v>
+      </c>
+      <c r="G72">
+        <v>-0.204052844926427</v>
+      </c>
+      <c r="H72">
+        <v>-0.4336758737043138</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73">
+        <v>-0.4126980796466476</v>
+      </c>
+      <c r="C73">
+        <v>-1.123179926605475</v>
+      </c>
+      <c r="D73">
+        <v>0.2087903581128855</v>
+      </c>
+      <c r="E73">
+        <v>-0.3168738548407865</v>
+      </c>
+      <c r="F73">
+        <v>-0.1680524618267904</v>
+      </c>
+      <c r="G73">
+        <v>-0.3976754906046772</v>
+      </c>
+      <c r="H73">
+        <v>-0.238549189178393</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74">
+        <v>-1.068388652218967</v>
+      </c>
+      <c r="C74">
+        <v>0.2635816324993934</v>
+      </c>
+      <c r="D74">
+        <v>-0.2620825804542786</v>
+      </c>
+      <c r="E74">
+        <v>-0.1132611874402825</v>
+      </c>
+      <c r="F74">
+        <v>-0.3428842162181693</v>
+      </c>
+      <c r="G74">
+        <v>-0.1837579147918851</v>
+      </c>
+      <c r="H74">
+        <v>0.758164408473315</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75">
+        <v>0.3910280981558645</v>
+      </c>
+      <c r="C75">
+        <v>-0.1346361147978076</v>
+      </c>
+      <c r="D75">
+        <v>0.01418527821618853</v>
+      </c>
+      <c r="E75">
+        <v>-0.2154377505616982</v>
+      </c>
+      <c r="F75">
+        <v>-0.05631144913541408</v>
+      </c>
+      <c r="G75">
+        <v>0.8856108741297861</v>
+      </c>
+      <c r="H75">
+        <v>1.073111942465118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76">
+        <v>-0.04821345623831119</v>
+      </c>
+      <c r="C76">
+        <v>0.1006079367756849</v>
+      </c>
+      <c r="D76">
+        <v>-0.1290150920022018</v>
+      </c>
+      <c r="E76">
+        <v>0.0301112094240823</v>
+      </c>
+      <c r="F76">
+        <v>0.9720335326892824</v>
+      </c>
+      <c r="G76">
+        <v>1.159534601024614</v>
+      </c>
+      <c r="H76">
+        <v>2.164752911189579</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77">
+        <v>0.11820374682909</v>
+      </c>
+      <c r="C77">
+        <v>-0.1114192819487968</v>
+      </c>
+      <c r="D77">
+        <v>0.04770701947748734</v>
+      </c>
+      <c r="E77">
+        <v>0.9896293427426874</v>
+      </c>
+      <c r="F77">
+        <v>1.177130411078019</v>
+      </c>
+      <c r="G77">
+        <v>2.182348721242984</v>
+      </c>
+      <c r="H77">
+        <v>5.316810489281177</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78">
+        <v>-0.0784733436364673</v>
+      </c>
+      <c r="C78">
+        <v>0.08065295778981685</v>
+      </c>
+      <c r="D78">
+        <v>1.022575281055017</v>
+      </c>
+      <c r="E78">
+        <v>1.210076349390349</v>
+      </c>
+      <c r="F78">
+        <v>2.215294659555314</v>
+      </c>
+      <c r="G78">
+        <v>5.349756427593507</v>
+      </c>
+      <c r="H78">
+        <v>0.4159523501925403</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79">
+        <v>0.06619275721803908</v>
+      </c>
+      <c r="C79">
+        <v>1.008115080483239</v>
+      </c>
+      <c r="D79">
+        <v>1.195616148818571</v>
+      </c>
+      <c r="E79">
+        <v>2.200834458983536</v>
+      </c>
+      <c r="F79">
+        <v>5.335296227021729</v>
+      </c>
+      <c r="G79">
+        <v>0.4014921496207625</v>
+      </c>
+      <c r="H79">
+        <v>0.02743478588559733</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80">
+        <v>1.104312089099192</v>
+      </c>
+      <c r="C80">
+        <v>1.291813157434523</v>
+      </c>
+      <c r="D80">
+        <v>2.297031467599489</v>
+      </c>
+      <c r="E80">
+        <v>5.431493235637681</v>
+      </c>
+      <c r="F80">
+        <v>0.497689158236715</v>
+      </c>
+      <c r="G80">
+        <v>0.1236317945015498</v>
+      </c>
+      <c r="H80">
+        <v>-0.02380962735559489</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81">
+        <v>1.202435251728586</v>
+      </c>
+      <c r="C81">
+        <v>2.207653561893551</v>
+      </c>
+      <c r="D81">
+        <v>5.342115329931744</v>
+      </c>
+      <c r="E81">
+        <v>0.4083112525307776</v>
+      </c>
+      <c r="F81">
+        <v>0.03425388879561242</v>
+      </c>
+      <c r="G81">
+        <v>-0.1131875330615323</v>
+      </c>
+      <c r="H81">
+        <v>-0.07269255321363799</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82">
+        <v>2.091191727723699</v>
+      </c>
+      <c r="C82">
+        <v>5.225653495761891</v>
+      </c>
+      <c r="D82">
+        <v>0.2918494183609256</v>
+      </c>
+      <c r="E82">
+        <v>-0.08220794537423959</v>
+      </c>
+      <c r="F82">
+        <v>-0.2296493672313843</v>
+      </c>
+      <c r="G82">
+        <v>-0.18915438738349</v>
+      </c>
+      <c r="H82">
+        <v>-1.628357481642796</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83">
+        <v>4.869154963865132</v>
+      </c>
+      <c r="C83">
+        <v>-0.06464911353583488</v>
+      </c>
+      <c r="D83">
+        <v>-0.4387064772710001</v>
+      </c>
+      <c r="E83">
+        <v>-0.5861478991281448</v>
+      </c>
+      <c r="F83">
+        <v>-0.5456529192802505</v>
+      </c>
+      <c r="G83">
+        <v>-1.984856013539557</v>
+      </c>
+      <c r="H83">
+        <v>-0.7831612636357227</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84">
+        <v>-0.5264473040380895</v>
+      </c>
+      <c r="C84">
+        <v>-0.9005046677732547</v>
+      </c>
+      <c r="D84">
+        <v>-1.047946089630399</v>
+      </c>
+      <c r="E84">
+        <v>-1.007451109782505</v>
+      </c>
+      <c r="F84">
+        <v>-2.446654204041811</v>
+      </c>
+      <c r="G84">
+        <v>-1.244959454137977</v>
+      </c>
+      <c r="H84">
+        <v>-0.9356696977468588</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85">
+        <v>-0.957885419084868</v>
+      </c>
+      <c r="C85">
+        <v>-1.105326840942013</v>
+      </c>
+      <c r="D85">
+        <v>-1.064831861094119</v>
+      </c>
+      <c r="E85">
+        <v>-2.504034955353425</v>
+      </c>
+      <c r="F85">
+        <v>-1.302340205449591</v>
+      </c>
+      <c r="G85">
+        <v>-0.9930504490584722</v>
+      </c>
+      <c r="H85">
+        <v>-2.14810329495117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86">
+        <v>-1.052433927991407</v>
+      </c>
+      <c r="C86">
+        <v>-1.011938948143512</v>
+      </c>
+      <c r="D86">
+        <v>-2.451142042402819</v>
+      </c>
+      <c r="E86">
+        <v>-1.249447292498985</v>
+      </c>
+      <c r="F86">
+        <v>-0.9401575361078661</v>
+      </c>
+      <c r="G86">
+        <v>-2.095210382000564</v>
+      </c>
+      <c r="H86">
+        <v>-0.5555765381109743</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87">
+        <v>-1.041468899776576</v>
+      </c>
+      <c r="C87">
+        <v>-2.480671994035883</v>
+      </c>
+      <c r="D87">
+        <v>-1.278977244132049</v>
+      </c>
+      <c r="E87">
+        <v>-0.9696874877409301</v>
+      </c>
+      <c r="F87">
+        <v>-2.124740333633628</v>
+      </c>
+      <c r="G87">
+        <v>-0.5851064897440383</v>
+      </c>
+      <c r="H87">
+        <v>-0.8547606097176721</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88">
+        <v>-2.527487953207926</v>
+      </c>
+      <c r="C88">
+        <v>-1.325793203304092</v>
+      </c>
+      <c r="D88">
+        <v>-1.016503446912973</v>
+      </c>
+      <c r="E88">
+        <v>-2.171556292805672</v>
+      </c>
+      <c r="F88">
+        <v>-0.6319224489160813</v>
+      </c>
+      <c r="G88">
+        <v>-0.901576568889715</v>
+      </c>
+      <c r="H88">
+        <v>-0.3500448649906018</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89">
+        <v>-1.091278253283397</v>
+      </c>
+      <c r="C89">
+        <v>-0.7819884968922787</v>
+      </c>
+      <c r="D89">
+        <v>-1.937041342784977</v>
+      </c>
+      <c r="E89">
+        <v>-0.3974074988953868</v>
+      </c>
+      <c r="F89">
+        <v>-0.6670616188690206</v>
+      </c>
+      <c r="G89">
+        <v>-0.1155299149699073</v>
+      </c>
+      <c r="H89">
+        <v>-0.3414566758827598</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90">
+        <v>-0.8260246319213993</v>
+      </c>
+      <c r="C90">
+        <v>-1.981077477814098</v>
+      </c>
+      <c r="D90">
+        <v>-0.4414436339245075</v>
+      </c>
+      <c r="E90">
+        <v>-0.7110977538981412</v>
+      </c>
+      <c r="F90">
+        <v>-0.159566049999028</v>
+      </c>
+      <c r="G90">
+        <v>-0.3854928109118805</v>
+      </c>
+      <c r="H90">
+        <v>-0.2776770955153309</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91">
+        <v>-1.875726177221434</v>
+      </c>
+      <c r="C91">
+        <v>-0.3360923333318435</v>
+      </c>
+      <c r="D91">
+        <v>-0.6057464533054773</v>
+      </c>
+      <c r="E91">
+        <v>-0.05421474940636402</v>
+      </c>
+      <c r="F91">
+        <v>-0.2801415103192165</v>
+      </c>
+      <c r="G91">
+        <v>-0.1723257949226669</v>
+      </c>
+      <c r="H91">
+        <v>-0.2687254155869686</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92">
+        <v>-0.1405287498260583</v>
+      </c>
+      <c r="C92">
+        <v>-0.4101828697996921</v>
+      </c>
+      <c r="D92">
+        <v>0.1413488340994211</v>
+      </c>
+      <c r="E92">
+        <v>-0.08457792681343129</v>
+      </c>
+      <c r="F92">
+        <v>0.0232377885831183</v>
+      </c>
+      <c r="G92">
+        <v>-0.0731618320811834</v>
+      </c>
+      <c r="H92">
+        <v>0.4302490533718251</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93">
+        <v>-0.2367009596406698</v>
+      </c>
+      <c r="C93">
+        <v>0.3148307442584434</v>
+      </c>
+      <c r="D93">
+        <v>0.08890398334559094</v>
+      </c>
+      <c r="E93">
+        <v>0.1967196987421405</v>
+      </c>
+      <c r="F93">
+        <v>0.1003200780778388</v>
+      </c>
+      <c r="G93">
+        <v>0.6037309635308473</v>
+      </c>
+      <c r="H93">
+        <v>0.8622529054542964</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94">
+        <v>0.7815531178611421</v>
+      </c>
+      <c r="C94">
+        <v>0.5556263569482897</v>
+      </c>
+      <c r="D94">
+        <v>0.6634420723448393</v>
+      </c>
+      <c r="E94">
+        <v>0.5670424516805376</v>
+      </c>
+      <c r="F94">
+        <v>1.070453337133546</v>
+      </c>
+      <c r="G94">
+        <v>1.328975279056995</v>
+      </c>
+      <c r="H94">
+        <v>-0.3950073059213186</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95">
+        <v>0.5133158442068292</v>
+      </c>
+      <c r="C95">
+        <v>0.6211315596033788</v>
+      </c>
+      <c r="D95">
+        <v>0.5247319389390771</v>
+      </c>
+      <c r="E95">
+        <v>1.028142824392086</v>
+      </c>
+      <c r="F95">
+        <v>1.286664766315535</v>
+      </c>
+      <c r="G95">
+        <v>-0.4373178186627791</v>
+      </c>
+      <c r="H95">
+        <v>0.2163213976999222</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96">
+        <v>0.59085446968239</v>
+      </c>
+      <c r="C96">
+        <v>0.4944548490180882</v>
+      </c>
+      <c r="D96">
+        <v>0.9978657344710967</v>
+      </c>
+      <c r="E96">
+        <v>1.256387676394546</v>
+      </c>
+      <c r="F96">
+        <v>-0.467594908583768</v>
+      </c>
+      <c r="G96">
+        <v>0.1860443077789333</v>
+      </c>
+      <c r="H96">
+        <v>0.5495882426873645</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97">
+        <v>0.4818396649441121</v>
+      </c>
+      <c r="C97">
+        <v>0.9852505503971206</v>
+      </c>
+      <c r="D97">
+        <v>1.24377249232057</v>
+      </c>
+      <c r="E97">
+        <v>-0.4802100926577441</v>
+      </c>
+      <c r="F97">
+        <v>0.1734291237049572</v>
+      </c>
+      <c r="G97">
+        <v>0.5369730586133884</v>
+      </c>
+      <c r="H97">
+        <v>-0.3638027862662411</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98">
+        <v>0.9421746901075616</v>
+      </c>
+      <c r="C98">
+        <v>1.200696632031011</v>
+      </c>
+      <c r="D98">
+        <v>-0.5232859529473031</v>
+      </c>
+      <c r="E98">
+        <v>0.1303532634153982</v>
+      </c>
+      <c r="F98">
+        <v>0.4938971983238294</v>
+      </c>
+      <c r="G98">
+        <v>-0.4068786465558001</v>
+      </c>
+      <c r="H98">
+        <v>0.6634969103978527</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99">
+        <v>0.9212738827079614</v>
+      </c>
+      <c r="C99">
+        <v>-0.8027087022703524</v>
+      </c>
+      <c r="D99">
+        <v>-0.1490694859076511</v>
+      </c>
+      <c r="E99">
+        <v>0.2144744490007801</v>
+      </c>
+      <c r="F99">
+        <v>-0.6863013958788494</v>
+      </c>
+      <c r="G99">
+        <v>0.3840741610748034</v>
+      </c>
+      <c r="H99">
+        <v>-0.1929857529416584</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100">
+        <v>-0.8773451131212686</v>
+      </c>
+      <c r="C100">
+        <v>-0.2237058967585673</v>
+      </c>
+      <c r="D100">
+        <v>0.1398380381498639</v>
+      </c>
+      <c r="E100">
+        <v>-0.7609378067297656</v>
+      </c>
+      <c r="F100">
+        <v>0.3094377502238873</v>
+      </c>
+      <c r="G100">
+        <v>-0.2676221637925746</v>
+      </c>
+      <c r="H100">
+        <v>-0.4732281478855908</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101">
+        <v>-0.1928365911230413</v>
+      </c>
+      <c r="C101">
+        <v>0.1707073437853899</v>
+      </c>
+      <c r="D101">
+        <v>-0.7300685010942396</v>
+      </c>
+      <c r="E101">
+        <v>0.3403070558594132</v>
+      </c>
+      <c r="F101">
+        <v>-0.2367528581570486</v>
+      </c>
+      <c r="G101">
+        <v>-0.4423588422500648</v>
+      </c>
+      <c r="H101">
+        <v>0.5367861394710324</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102">
+        <v>0.04951982135029001</v>
+      </c>
+      <c r="C102">
+        <v>-0.8512560235293395</v>
+      </c>
+      <c r="D102">
+        <v>0.2191195334243133</v>
+      </c>
+      <c r="E102">
+        <v>-0.3579403805921485</v>
+      </c>
+      <c r="F102">
+        <v>-0.5635463646851647</v>
+      </c>
+      <c r="G102">
+        <v>0.4155986170359325</v>
+      </c>
+      <c r="H102">
+        <v>-0.3207477263014294</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103">
+        <v>-0.8219827924900042</v>
+      </c>
+      <c r="C103">
+        <v>0.2483927644636486</v>
+      </c>
+      <c r="D103">
+        <v>-0.3286671495528132</v>
+      </c>
+      <c r="E103">
+        <v>-0.5342731336458294</v>
+      </c>
+      <c r="F103">
+        <v>0.4448718480752678</v>
+      </c>
+      <c r="G103">
+        <v>-0.2914744952620941</v>
+      </c>
+      <c r="H103">
+        <v>-0.3094443099162875</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104">
+        <v>0.2874422675287736</v>
+      </c>
+      <c r="C104">
+        <v>-0.2896176464876882</v>
+      </c>
+      <c r="D104">
+        <v>-0.4952236305807045</v>
+      </c>
+      <c r="E104">
+        <v>0.4839213511403928</v>
+      </c>
+      <c r="F104">
+        <v>-0.2524249921969692</v>
+      </c>
+      <c r="G104">
+        <v>-0.2703948068511625</v>
+      </c>
+      <c r="H104">
+        <v>-0.2469899413108257</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105">
+        <v>-0.3811441197962005</v>
+      </c>
+      <c r="C105">
+        <v>-0.5867501038892167</v>
+      </c>
+      <c r="D105">
+        <v>0.3923948778318805</v>
+      </c>
+      <c r="E105">
+        <v>-0.3439514655054814</v>
+      </c>
+      <c r="F105">
+        <v>-0.3619212801596748</v>
+      </c>
+      <c r="G105">
+        <v>-0.338516414619338</v>
+      </c>
+      <c r="H105">
+        <v>-0.7036908503860788</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106">
+        <v>-0.5938852086106097</v>
+      </c>
+      <c r="C106">
+        <v>0.3852597731104875</v>
+      </c>
+      <c r="D106">
+        <v>-0.3510865702268745</v>
+      </c>
+      <c r="E106">
+        <v>-0.3690563848810678</v>
+      </c>
+      <c r="F106">
+        <v>-0.345651519340731</v>
+      </c>
+      <c r="G106">
+        <v>-0.7108259551074718</v>
+      </c>
+      <c r="H106">
+        <v>-0.0550064379365196</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107">
+        <v>0.4436823467547108</v>
+      </c>
+      <c r="C107">
+        <v>-0.2926639965826512</v>
+      </c>
+      <c r="D107">
+        <v>-0.3106338112368445</v>
+      </c>
+      <c r="E107">
+        <v>-0.2872289456965077</v>
+      </c>
+      <c r="F107">
+        <v>-0.6524033814632485</v>
+      </c>
+      <c r="G107">
+        <v>0.003416135707703688</v>
+      </c>
+      <c r="H107">
+        <v>-0.12745474523372</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108">
+        <v>-0.2740769919852016</v>
+      </c>
+      <c r="C108">
+        <v>-0.292046806639395</v>
+      </c>
+      <c r="D108">
+        <v>-0.2686419410990581</v>
+      </c>
+      <c r="E108">
+        <v>-0.6338163768657989</v>
+      </c>
+      <c r="F108">
+        <v>0.02200314030515318</v>
+      </c>
+      <c r="G108">
+        <v>-0.1088677406362705</v>
+      </c>
+      <c r="H108">
+        <v>-0.2183855395603924</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109">
+        <v>-0.1790853597680137</v>
+      </c>
+      <c r="C109">
+        <v>-0.1556804942276769</v>
+      </c>
+      <c r="D109">
+        <v>-0.5208549299944176</v>
+      </c>
+      <c r="E109">
+        <v>0.1349645871765345</v>
+      </c>
+      <c r="F109">
+        <v>0.004093706235110794</v>
+      </c>
+      <c r="G109">
+        <v>-0.1054240926890111</v>
+      </c>
+      <c r="H109">
+        <v>-0.9352018797565644</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110">
+        <v>-0.09712588908289738</v>
+      </c>
+      <c r="C110">
+        <v>-0.4623003248496382</v>
+      </c>
+      <c r="D110">
+        <v>0.193519192321314</v>
+      </c>
+      <c r="E110">
+        <v>0.0626483113798903</v>
+      </c>
+      <c r="F110">
+        <v>-0.04686948754423159</v>
+      </c>
+      <c r="G110">
+        <v>-0.8766472746117848</v>
+      </c>
+      <c r="H110">
+        <v>-0.2961214854431372</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B111">
+        <v>-0.5289795641056161</v>
+      </c>
+      <c r="C111">
+        <v>0.1268399530653361</v>
+      </c>
+      <c r="D111">
+        <v>-0.004030927876087609</v>
+      </c>
+      <c r="E111">
+        <v>-0.1135487268002095</v>
+      </c>
+      <c r="F111">
+        <v>-0.9433265138677628</v>
+      </c>
+      <c r="G111">
+        <v>-0.3628007246991151</v>
+      </c>
+      <c r="H111">
+        <v>-0.446186826128895</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B112">
+        <v>0.1560540901775642</v>
+      </c>
+      <c r="C112">
+        <v>0.02518320923614054</v>
+      </c>
+      <c r="D112">
+        <v>-0.08433458968798135</v>
+      </c>
+      <c r="E112">
+        <v>-0.9141123767555346</v>
+      </c>
+      <c r="F112">
+        <v>-0.3335865875868869</v>
+      </c>
+      <c r="G112">
+        <v>-0.4169726890166669</v>
+      </c>
+      <c r="H112">
+        <v>-0.6348825665564255</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B113">
+        <v>0.04382628996709842</v>
+      </c>
+      <c r="C113">
+        <v>-0.06569150895702347</v>
+      </c>
+      <c r="D113">
+        <v>-0.8954692960245767</v>
+      </c>
+      <c r="E113">
+        <v>-0.314943506855929</v>
+      </c>
+      <c r="F113">
+        <v>-0.398329608285709</v>
+      </c>
+      <c r="G113">
+        <v>-0.6162394858254676</v>
+      </c>
+      <c r="H113">
+        <v>0.9475383178107026</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B114">
+        <v>-0.106237102096024</v>
+      </c>
+      <c r="C114">
+        <v>-0.9360148891635773</v>
+      </c>
+      <c r="D114">
+        <v>-0.3554890999949296</v>
+      </c>
+      <c r="E114">
+        <v>-0.4388752014247095</v>
+      </c>
+      <c r="F114">
+        <v>-0.6567850789644682</v>
+      </c>
+      <c r="G114">
+        <v>0.9069927246717022</v>
+      </c>
+      <c r="H114">
+        <v>-0.4289909814103615</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B115">
+        <v>-0.8820377627523091</v>
+      </c>
+      <c r="C115">
+        <v>-0.3015119735836613</v>
+      </c>
+      <c r="D115">
+        <v>-0.3848980750134413</v>
+      </c>
+      <c r="E115">
+        <v>-0.6028079525532</v>
+      </c>
+      <c r="F115">
+        <v>0.9609698510829704</v>
+      </c>
+      <c r="G115">
+        <v>-0.3750138549990932</v>
+      </c>
+      <c r="H115">
+        <v>1.065600561531035</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B116">
+        <v>-0.2673832081489602</v>
+      </c>
+      <c r="C116">
+        <v>-0.3507693095787401</v>
+      </c>
+      <c r="D116">
+        <v>-0.5686791871184989</v>
+      </c>
+      <c r="E116">
+        <v>0.9950986165176716</v>
+      </c>
+      <c r="F116">
+        <v>-0.3408850895643921</v>
+      </c>
+      <c r="G116">
+        <v>1.099729326965736</v>
+      </c>
+      <c r="H116">
+        <v>-0.0007147872950865053</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B117">
+        <v>-0.3480007254186096</v>
+      </c>
+      <c r="C117">
+        <v>-0.5659106029583683</v>
+      </c>
+      <c r="D117">
+        <v>0.9978672006778021</v>
+      </c>
+      <c r="E117">
+        <v>-0.3381165054042615</v>
+      </c>
+      <c r="F117">
+        <v>1.102497911125867</v>
+      </c>
+      <c r="G117">
+        <v>0.002053796865044033</v>
+      </c>
+      <c r="H117">
+        <v>-0.2082206013046258</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B118">
+        <v>-0.4749660705519546</v>
+      </c>
+      <c r="C118">
+        <v>1.088811733084216</v>
+      </c>
+      <c r="D118">
+        <v>-0.2471719729978479</v>
+      </c>
+      <c r="E118">
+        <v>1.19344244353228</v>
+      </c>
+      <c r="F118">
+        <v>0.09299832927145768</v>
+      </c>
+      <c r="G118">
+        <v>-0.1172760688982122</v>
+      </c>
+      <c r="H118">
+        <v>0.4812681344855182</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B119">
+        <v>1.097015279354651</v>
+      </c>
+      <c r="C119">
+        <v>-0.2389684267274125</v>
+      </c>
+      <c r="D119">
+        <v>1.201645989802716</v>
+      </c>
+      <c r="E119">
+        <v>0.1012018755418931</v>
+      </c>
+      <c r="F119">
+        <v>-0.1090725226277768</v>
+      </c>
+      <c r="G119">
+        <v>0.4894716807559536</v>
+      </c>
+      <c r="H119">
+        <v>0.1638030399807392</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B120">
+        <v>-0.2415579873788807</v>
+      </c>
+      <c r="C120">
+        <v>1.199056429151248</v>
+      </c>
+      <c r="D120">
+        <v>0.09861231489042488</v>
+      </c>
+      <c r="E120">
+        <v>-0.111662083279245</v>
+      </c>
+      <c r="F120">
+        <v>0.4868821201044854</v>
+      </c>
+      <c r="G120">
+        <v>0.161213479329271</v>
+      </c>
+      <c r="H120">
+        <v>0.8783932807048747</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B121">
+        <v>1.205589761734299</v>
+      </c>
+      <c r="C121">
+        <v>0.1051456474734768</v>
+      </c>
+      <c r="D121">
+        <v>-0.1051287506961931</v>
+      </c>
+      <c r="E121">
+        <v>0.4934154526875373</v>
+      </c>
+      <c r="F121">
+        <v>0.1677468119123229</v>
+      </c>
+      <c r="G121">
+        <v>0.8849266132879265</v>
+      </c>
+      <c r="H121">
+        <v>2.580798888925627</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B122">
+        <v>-0.006071047505593896</v>
+      </c>
+      <c r="C122">
+        <v>-0.2163454456752638</v>
+      </c>
+      <c r="D122">
+        <v>0.3821987577084666</v>
+      </c>
+      <c r="E122">
+        <v>0.05653011693325222</v>
+      </c>
+      <c r="F122">
+        <v>0.7737099183088558</v>
+      </c>
+      <c r="G122">
+        <v>2.469582193946557</v>
+      </c>
+      <c r="H122">
+        <v>9.313828988871135</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B123">
+        <v>-0.2580915896621678</v>
+      </c>
+      <c r="C123">
+        <v>0.3404526137215625</v>
+      </c>
+      <c r="D123">
+        <v>0.01478397294634815</v>
+      </c>
+      <c r="E123">
+        <v>0.7319637743219518</v>
+      </c>
+      <c r="F123">
+        <v>2.427836049959653</v>
+      </c>
+      <c r="G123">
+        <v>9.272082844884231</v>
+      </c>
+      <c r="H123">
+        <v>-8.278571238217079</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B124">
+        <v>0.3657676764542774</v>
+      </c>
+      <c r="C124">
+        <v>0.04009903567906303</v>
+      </c>
+      <c r="D124">
+        <v>0.7572788370546667</v>
+      </c>
+      <c r="E124">
+        <v>2.453151112692368</v>
+      </c>
+      <c r="F124">
+        <v>9.297397907616945</v>
+      </c>
+      <c r="G124">
+        <v>-8.253256175484365</v>
+      </c>
+      <c r="H124">
+        <v>-0.5438595758282182</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B125">
+        <v>0.04413770072197692</v>
+      </c>
+      <c r="C125">
+        <v>0.7613175020975806</v>
+      </c>
+      <c r="D125">
+        <v>2.457189777735282</v>
+      </c>
+      <c r="E125">
+        <v>9.30143657265986</v>
+      </c>
+      <c r="F125">
+        <v>-8.249217510441451</v>
+      </c>
+      <c r="G125">
+        <v>-0.5398209107853043</v>
+      </c>
+      <c r="H125">
+        <v>1.043091750101607</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B126">
+        <v>0.6424403654065582</v>
+      </c>
+      <c r="C126">
+        <v>2.338312641044259</v>
+      </c>
+      <c r="D126">
+        <v>9.182559435968837</v>
+      </c>
+      <c r="E126">
+        <v>-8.368094647132473</v>
+      </c>
+      <c r="F126">
+        <v>-0.6586980474763267</v>
+      </c>
+      <c r="G126">
+        <v>0.9242146134105849</v>
+      </c>
+      <c r="H126">
+        <v>-2.042072378938671</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B127">
+        <v>2.297389002388887</v>
+      </c>
+      <c r="C127">
+        <v>9.141635797313464</v>
+      </c>
+      <c r="D127">
+        <v>-8.409018285787846</v>
+      </c>
+      <c r="E127">
+        <v>-0.6996216861316987</v>
+      </c>
+      <c r="F127">
+        <v>0.8832909747552129</v>
+      </c>
+      <c r="G127">
+        <v>-2.082996017594043</v>
+      </c>
+      <c r="H127">
+        <v>0.18103513707042</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B128">
+        <v>8.826710628892494</v>
+      </c>
+      <c r="C128">
+        <v>-8.723943454208817</v>
+      </c>
+      <c r="D128">
+        <v>-1.01454685455267</v>
+      </c>
+      <c r="E128">
+        <v>0.5683658063342414</v>
+      </c>
+      <c r="F128">
+        <v>-2.397921186015015</v>
+      </c>
+      <c r="G128">
+        <v>-0.1338900313505515</v>
+      </c>
+      <c r="H128">
+        <v>-0.5850441862772902</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B129">
+        <v>-9.780318414391347</v>
+      </c>
+      <c r="C129">
+        <v>-2.0709218147352</v>
+      </c>
+      <c r="D129">
+        <v>-0.4880091538482882</v>
+      </c>
+      <c r="E129">
+        <v>-3.454296146197544</v>
+      </c>
+      <c r="F129">
+        <v>-1.190264991533081</v>
+      </c>
+      <c r="G129">
+        <v>-1.64141914645982</v>
+      </c>
+      <c r="H129">
+        <v>-1.781783209973794</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B130">
+        <v>-1.200275438764269</v>
+      </c>
+      <c r="C130">
+        <v>0.3826372221226423</v>
+      </c>
+      <c r="D130">
+        <v>-2.583649770226613</v>
+      </c>
+      <c r="E130">
+        <v>-0.3196186155621505</v>
+      </c>
+      <c r="F130">
+        <v>-0.7707727704888893</v>
+      </c>
+      <c r="G130">
+        <v>-0.9111368340028634</v>
+      </c>
+      <c r="H130">
+        <v>-0.3848978231406458</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B131">
+        <v>0.3719860057927588</v>
+      </c>
+      <c r="C131">
+        <v>-2.594300986556497</v>
+      </c>
+      <c r="D131">
+        <v>-0.3302698318920341</v>
+      </c>
+      <c r="E131">
+        <v>-0.7814239868187727</v>
+      </c>
+      <c r="F131">
+        <v>-0.9217880503327469</v>
+      </c>
+      <c r="G131">
+        <v>-0.3955490394705293</v>
+      </c>
+      <c r="H131">
+        <v>-0.5373779862098034</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B132">
+        <v>-2.702915518772638</v>
+      </c>
+      <c r="C132">
+        <v>-0.4388843641081749</v>
+      </c>
+      <c r="D132">
+        <v>-0.8900385190349136</v>
+      </c>
+      <c r="E132">
+        <v>-1.030402582548888</v>
+      </c>
+      <c r="F132">
+        <v>-0.5041635716866701</v>
+      </c>
+      <c r="G132">
+        <v>-0.6459925184259441</v>
+      </c>
+      <c r="H132">
+        <v>-0.003017897023880223</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B133">
+        <v>-0.2307826431404359</v>
+      </c>
+      <c r="C133">
+        <v>-0.6819367980671746</v>
+      </c>
+      <c r="D133">
+        <v>-0.8223008615811487</v>
+      </c>
+      <c r="E133">
+        <v>-0.2960618507189311</v>
+      </c>
+      <c r="F133">
+        <v>-0.4378907974582051</v>
+      </c>
+      <c r="G133">
+        <v>0.2050838239438588</v>
+      </c>
+      <c r="H133">
+        <v>0.3294965302734412</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B134">
+        <v>-0.5654386276933741</v>
+      </c>
+      <c r="C134">
+        <v>-0.7058026912073482</v>
+      </c>
+      <c r="D134">
+        <v>-0.1795636803451306</v>
+      </c>
+      <c r="E134">
+        <v>-0.3213926270844047</v>
+      </c>
+      <c r="F134">
+        <v>0.3215819943176592</v>
+      </c>
+      <c r="G134">
+        <v>0.4459947006472416</v>
+      </c>
+      <c r="H134">
+        <v>0.04836449460962439</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B135">
+        <v>-0.6603092772102132</v>
+      </c>
+      <c r="C135">
+        <v>-0.1340702663479956</v>
+      </c>
+      <c r="D135">
+        <v>-0.2758992130872696</v>
+      </c>
+      <c r="E135">
+        <v>0.3670754083147943</v>
+      </c>
+      <c r="F135">
+        <v>0.4914881146443768</v>
+      </c>
+      <c r="G135">
+        <v>0.09385790860675949</v>
+      </c>
+      <c r="H135">
+        <v>0.01768919490591373</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B136">
+        <v>-0.15162438770796</v>
+      </c>
+      <c r="C136">
+        <v>-0.293453334447234</v>
+      </c>
+      <c r="D136">
+        <v>0.3495212869548299</v>
+      </c>
+      <c r="E136">
+        <v>0.4739339932844123</v>
+      </c>
+      <c r="F136">
+        <v>0.07630378724679503</v>
+      </c>
+      <c r="G136">
+        <v>0.0001350735459492769</v>
+      </c>
+      <c r="H136">
+        <v>0.2764571316688709</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B137">
+        <v>-0.2053460154962278</v>
+      </c>
+      <c r="C137">
+        <v>0.4376286059058361</v>
+      </c>
+      <c r="D137">
+        <v>0.5620413122354185</v>
+      </c>
+      <c r="E137">
+        <v>0.1644111061978012</v>
+      </c>
+      <c r="F137">
+        <v>0.08824239249695551</v>
+      </c>
+      <c r="G137">
+        <v>0.3645644506198771</v>
+      </c>
+      <c r="H137">
+        <v>0.1933446283081531</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B138">
+        <v>0.6162032393936197</v>
+      </c>
+      <c r="C138">
+        <v>0.7406159457232021</v>
+      </c>
+      <c r="D138">
+        <v>0.3429857396855849</v>
+      </c>
+      <c r="E138">
+        <v>0.2668170259847391</v>
+      </c>
+      <c r="F138">
+        <v>0.5431390841076607</v>
+      </c>
+      <c r="G138">
+        <v>0.3719192617959367</v>
+      </c>
+      <c r="H138">
+        <v>0.525066667304678</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B139">
+        <v>1.652643173475852</v>
+      </c>
+      <c r="C139">
+        <v>1.255012967438235</v>
+      </c>
+      <c r="D139">
+        <v>1.178844253737389</v>
+      </c>
+      <c r="E139">
+        <v>1.455166311860311</v>
+      </c>
+      <c r="F139">
+        <v>1.283946489548587</v>
+      </c>
+      <c r="G139">
+        <v>1.437093895057328</v>
+      </c>
+      <c r="H139">
+        <v>1.159665120634209</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B140">
+        <v>0.3110387314724781</v>
+      </c>
+      <c r="C140">
+        <v>0.2348700177716323</v>
+      </c>
+      <c r="D140">
+        <v>0.5111920758945538</v>
+      </c>
+      <c r="E140">
+        <v>0.3399722535828299</v>
+      </c>
+      <c r="F140">
+        <v>0.4931196590915711</v>
+      </c>
+      <c r="G140">
+        <v>0.2156908846684524</v>
+      </c>
+      <c r="H140">
+        <v>0.05270319130950599</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B141">
+        <v>0.2388379152847414</v>
+      </c>
+      <c r="C141">
+        <v>0.5151599734076631</v>
+      </c>
+      <c r="D141">
+        <v>0.343940151095939</v>
+      </c>
+      <c r="E141">
+        <v>0.4970875566046802</v>
+      </c>
+      <c r="F141">
+        <v>0.2196587821815615</v>
+      </c>
+      <c r="G141">
+        <v>0.0566710888226151</v>
+      </c>
+      <c r="H141">
+        <v>-0.06741148657190271</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B142">
+        <v>0.6508000635779043</v>
+      </c>
+      <c r="C142">
+        <v>0.4795802412661804</v>
+      </c>
+      <c r="D142">
+        <v>0.6327276467749217</v>
+      </c>
+      <c r="E142">
+        <v>0.3552988723518029</v>
+      </c>
+      <c r="F142">
+        <v>0.1923111789928565</v>
+      </c>
+      <c r="G142">
+        <v>0.06822860359833866</v>
+      </c>
+      <c r="H142">
+        <v>0.6511691608790895</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B143">
+        <v>0.2387740594105157</v>
+      </c>
+      <c r="C143">
+        <v>0.3919214649192569</v>
+      </c>
+      <c r="D143">
+        <v>0.1144926904961382</v>
+      </c>
+      <c r="E143">
+        <v>-0.04849500286280822</v>
+      </c>
+      <c r="F143">
+        <v>-0.172577578257326</v>
+      </c>
+      <c r="G143">
+        <v>0.4103629790234248</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B144">
+        <v>0.3465902496671606</v>
+      </c>
+      <c r="C144">
+        <v>0.0691614752440418</v>
+      </c>
+      <c r="D144">
+        <v>-0.09382621811490459</v>
+      </c>
+      <c r="E144">
+        <v>-0.2179087935094224</v>
+      </c>
+      <c r="F144">
+        <v>0.3650317637713285</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B145">
+        <v>0.00230005330798793</v>
+      </c>
+      <c r="C145">
+        <v>-0.1606876400509585</v>
+      </c>
+      <c r="D145">
+        <v>-0.2847702154454763</v>
+      </c>
+      <c r="E145">
+        <v>0.2981703418352746</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B146">
+        <v>-0.1902738424076751</v>
+      </c>
+      <c r="C146">
+        <v>-0.3143564178021929</v>
+      </c>
+      <c r="D146">
+        <v>0.268584139478558</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B147">
+        <v>-0.3325070745318338</v>
+      </c>
+      <c r="C147">
+        <v>0.2504334827489171</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B148">
         <v>0.2324016585002178</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
